--- a/data/trans_bre/IP26C_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP26C_R-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>11,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,71</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>39,06%</t>
+          <t>129,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-31,1%</t>
+          <t>51,32%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,16%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-9,85%</t>
+          <t>-19,31%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 8,93</t>
+          <t>-4,68; 29,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 0,91</t>
+          <t>-11,83; 18,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 4,12</t>
+          <t>0,0; 24,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 4,1</t>
+          <t>-29,27; 17,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 111,6</t>
+          <t>-47,72; 1043,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-58,78; 13,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-45,16; 65,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-45,05; 39,21</t>
+          <t>-90,73; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>-3,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>43,76%</t>
+          <t>39,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>31,14%</t>
+          <t>-31,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>-3,16%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-35,28%</t>
+          <t>-9,85%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 8,62</t>
+          <t>-1,01; 8,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 8,95</t>
+          <t>-8,55; 0,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 5,7</t>
+          <t>-4,8; 4,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 1,23</t>
+          <t>-7,14; 4,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 149,48</t>
+          <t>-9,02; 111,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,15; 105,9</t>
+          <t>-58,78; 13,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,91; 75,68</t>
+          <t>-45,16; 65,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-64,9; 19,62</t>
+          <t>-45,05; 39,21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,35</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>129,92%</t>
+          <t>-20,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>51,32%</t>
+          <t>-15,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-19,31%</t>
+          <t>15,75%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 29,66</t>
+          <t>-7,54; 3,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 18,34</t>
+          <t>-6,79; 3,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,02</t>
+          <t>-3,91; 7,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,27; 17,37</t>
+          <t>-3,92; 5,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,72; 1043,08</t>
+          <t>-54,2; 45,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,45; 57,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,16; 98,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-90,73; —</t>
+          <t>-45,16; 139,27</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-20,41%</t>
+          <t>43,76%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-15,65%</t>
+          <t>31,14%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>-35,28%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 3,22</t>
+          <t>-1,12; 8,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 3,74</t>
+          <t>-2,68; 8,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 7,43</t>
+          <t>-4,2; 5,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 5,46</t>
+          <t>-9,57; 1,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-54,2; 45,5</t>
+          <t>-13,7; 149,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-55,45; 57,03</t>
+          <t>-20,15; 105,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-32,16; 98,02</t>
+          <t>-35,91; 75,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-45,16; 139,27</t>
+          <t>-64,9; 19,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP26C_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP26C_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 29,66</t>
+          <t>-4,06; 30,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 18,34</t>
+          <t>-11,42; 20,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,02</t>
+          <t>0,0; 24,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-47,72; 1043,08</t>
+          <t>-47,79; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 6,54</t>
+          <t>-5,25; 7,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 5,94</t>
+          <t>-8,18; 5,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 2,15</t>
+          <t>-9,9; 1,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 4,88</t>
+          <t>-10,58; 5,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,07; 94,03</t>
+          <t>-44,1; 121,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,24; 67,95</t>
+          <t>-52,72; 61,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-72,91; 36,27</t>
+          <t>-75,32; 29,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-56,48; 48,9</t>
+          <t>-54,79; 51,14</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 8,93</t>
+          <t>-0,64; 9,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 0,91</t>
+          <t>-8,26; 1,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 4,12</t>
+          <t>-4,36; 4,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 4,1</t>
+          <t>-6,55; 4,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 111,6</t>
+          <t>-6,16; 124,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-58,78; 13,42</t>
+          <t>-57,77; 14,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-45,16; 65,16</t>
+          <t>-42,4; 68,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-45,05; 39,21</t>
+          <t>-41,95; 39,85</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 3,22</t>
+          <t>-7,65; 3,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 3,74</t>
+          <t>-6,33; 3,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 7,43</t>
+          <t>-3,77; 7,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 5,46</t>
+          <t>-3,58; 5,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,2; 45,5</t>
+          <t>-58,4; 47,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,45; 57,03</t>
+          <t>-52,61; 57,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,16; 98,02</t>
+          <t>-29,54; 100,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,16; 139,27</t>
+          <t>-43,84; 141,82</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 8,62</t>
+          <t>-1,3; 8,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 8,95</t>
+          <t>-1,86; 9,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 5,7</t>
+          <t>-4,49; 5,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 1,23</t>
+          <t>-9,86; 0,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 149,48</t>
+          <t>-15,06; 148,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,15; 105,9</t>
+          <t>-15,44; 108,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-35,91; 75,68</t>
+          <t>-36,69; 75,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-64,9; 19,62</t>
+          <t>-66,61; 15,51</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 5,05</t>
+          <t>-0,03; 5,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 2,11</t>
+          <t>-3,09; 2,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 2,38</t>
+          <t>-2,31; 2,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 0,96</t>
+          <t>-4,64; 0,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 59,8</t>
+          <t>-0,06; 63,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,57; 22,23</t>
+          <t>-25,51; 21,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,05; 29,0</t>
+          <t>-22,24; 32,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,77; 10,65</t>
+          <t>-35,8; 8,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP26C_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP26C_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 30,25</t>
+          <t>-3,96; 31,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 20,16</t>
+          <t>-10,6; 19,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,17</t>
+          <t>0,0; 23,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,27; 17,37</t>
+          <t>-26,75; 17,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-47,79; —</t>
+          <t>-56,65; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-90,73; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 7,45</t>
+          <t>-5,4; 6,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 5,51</t>
+          <t>-8,08; 5,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 1,91</t>
+          <t>-9,82; 2,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 5,02</t>
+          <t>-11,49; 5,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,1; 121,39</t>
+          <t>-44,04; 97,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,72; 61,34</t>
+          <t>-50,93; 57,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-75,32; 29,9</t>
+          <t>-73,7; 35,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-54,79; 51,14</t>
+          <t>-58,07; 58,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 9,87</t>
+          <t>-1,34; 8,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 1,36</t>
+          <t>-8,73; 0,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 4,23</t>
+          <t>-4,64; 3,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 4,17</t>
+          <t>-6,59; 4,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 124,01</t>
+          <t>-13,89; 107,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-57,77; 14,16</t>
+          <t>-59,94; 9,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-42,4; 68,62</t>
+          <t>-44,49; 63,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-41,95; 39,85</t>
+          <t>-42,13; 40,47</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 3,48</t>
+          <t>-7,82; 3,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 3,77</t>
+          <t>-6,43; 3,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 7,36</t>
+          <t>-3,92; 7,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 5,51</t>
+          <t>-3,77; 5,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,4; 47,69</t>
+          <t>-57,37; 43,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,61; 57,1</t>
+          <t>-55,85; 58,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,54; 100,2</t>
+          <t>-29,06; 105,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,84; 141,82</t>
+          <t>-46,38; 156,63</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 8,32</t>
+          <t>-1,89; 7,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 9,02</t>
+          <t>-2,02; 8,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 5,75</t>
+          <t>-4,93; 5,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 0,91</t>
+          <t>-9,58; 1,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 148,5</t>
+          <t>-22,3; 136,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 108,67</t>
+          <t>-16,89; 102,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-36,69; 75,27</t>
+          <t>-38,0; 75,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-66,61; 15,51</t>
+          <t>-64,51; 20,36</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 5,06</t>
+          <t>-0,34; 4,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,13</t>
+          <t>-3,22; 2,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,64</t>
+          <t>-2,37; 2,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 0,83</t>
+          <t>-4,9; 0,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 63,92</t>
+          <t>-2,97; 57,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,51; 21,85</t>
+          <t>-26,15; 23,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 32,55</t>
+          <t>-22,58; 34,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,8; 8,74</t>
+          <t>-37,22; 8,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP26C_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP26C_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,35</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>129,92%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>51,32%</t>
+          <t>-3,81%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-27,27%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-19,31%</t>
+          <t>-10,19%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 31,08</t>
+          <t>-2,95; 8,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 19,9</t>
+          <t>-7,11; 5,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,91</t>
+          <t>-7,17; 2,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 17,88</t>
+          <t>-8,96; 5,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-56,65; —</t>
+          <t>-26,51; 120,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,57; 71,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,17; 54,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,44; 58,69</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-3,71</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,68</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>39,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-10,35%</t>
+          <t>-31,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-36,97%</t>
+          <t>-3,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-19,74%</t>
+          <t>-9,95%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 6,38</t>
+          <t>-1,01; 8,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 5,33</t>
+          <t>-8,55; 0,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 2,25</t>
+          <t>-4,8; 4,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 5,47</t>
+          <t>-7,29; 4,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,04; 97,85</t>
+          <t>-9,02; 111,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-50,93; 57,95</t>
+          <t>-58,78; 13,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-73,7; 35,54</t>
+          <t>-45,16; 65,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-58,07; 58,98</t>
+          <t>-45,99; 38,82</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,71</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>39,06%</t>
+          <t>-20,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-31,1%</t>
+          <t>-15,65%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,16%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-9,85%</t>
+          <t>4,17%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 8,94</t>
+          <t>-7,54; 3,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 0,56</t>
+          <t>-6,79; 3,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 3,93</t>
+          <t>-3,91; 7,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 4,11</t>
+          <t>-4,9; 4,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 107,24</t>
+          <t>-54,2; 45,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-59,94; 9,55</t>
+          <t>-55,45; 57,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-44,49; 63,81</t>
+          <t>-32,16; 98,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-42,13; 40,47</t>
+          <t>-53,62; 116,93</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-20,41%</t>
+          <t>43,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-15,65%</t>
+          <t>31,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>-35,66%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 3,08</t>
+          <t>-1,12; 8,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 3,68</t>
+          <t>-2,68; 8,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 7,27</t>
+          <t>-4,2; 5,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 5,48</t>
+          <t>-9,47; 1,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,37; 43,66</t>
+          <t>-13,7; 149,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,85; 58,95</t>
+          <t>-20,15; 105,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,06; 105,38</t>
+          <t>-35,91; 75,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,38; 156,63</t>
+          <t>-65,19; 17,36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>43,76%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>31,14%</t>
+          <t>-4,62%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-35,28%</t>
+          <t>-17,29%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 7,8</t>
+          <t>-0,24; 5,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 8,65</t>
+          <t>-2,94; 2,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 5,75</t>
+          <t>-2,42; 2,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 1,45</t>
+          <t>-4,64; 0,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 136,32</t>
+          <t>-2,57; 59,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 102,78</t>
+          <t>-24,57; 22,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-38,0; 75,66</t>
+          <t>-23,05; 29,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-64,51; 20,36</t>
+          <t>-37,71; 8,52</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,19</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-1,87</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>23,18%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-4,62%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1,16%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-16,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,34; 4,72</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,22; 2,29</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 2,72</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-4,9; 0,74</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-2,97; 57,38</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-26,15; 23,77</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-22,58; 34,8</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-37,22; 8,22</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
